--- a/מעבדות/תנועה הרמונית/harmonic.xlsx
+++ b/מעבדות/תנועה הרמונית/harmonic.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>L</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>Total Mass</t>
+  </si>
+  <si>
+    <t>rdiscCm</t>
+  </si>
+  <si>
+    <t>B מרחק בין מרכז המשקולת למרכז המסה</t>
+  </si>
+  <si>
+    <t>המרכז בין מרכז המסה למרכז המוט</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1575,35 +1584,68 @@
         <v>2.2688000000000001</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
+    <row r="17" spans="5:11">
       <c r="F17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="5:6">
+    <row r="18" spans="5:11">
       <c r="F18">
         <v>3.5700000000000003E-2</v>
       </c>
-    </row>
-    <row r="19" spans="5:6">
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11">
       <c r="F19" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="5:6">
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="K19">
+        <f>J19/100</f>
+        <v>4.0199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
       <c r="F20">
         <v>0.99399999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="5:6">
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:K21" si="4">J20/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11">
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="5:6">
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11">
       <c r="E22" t="s">
         <v>18</v>
       </c>
@@ -1612,27 +1654,27 @@
         <v>3.2984999999999998</v>
       </c>
     </row>
-    <row r="23" spans="5:6">
+    <row r="23" spans="5:11">
       <c r="E23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="5:6">
+    <row r="24" spans="5:11">
       <c r="E24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="5:6">
+    <row r="25" spans="5:11">
       <c r="E25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="5:6">
+    <row r="27" spans="5:11">
       <c r="E27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="5:6">
+    <row r="30" spans="5:11">
       <c r="E30" t="s">
         <v>22</v>
       </c>

--- a/מעבדות/תנועה הרמונית/harmonic.xlsx
+++ b/מעבדות/תנועה הרמונית/harmonic.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13632" windowHeight="204" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13632" windowHeight="204"/>
   </bookViews>
   <sheets>
     <sheet name="מטוטלת מתמטית" sheetId="1" r:id="rId1"/>
-    <sheet name="מטוטלת פיזיקלית" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="מטוטלת פיזיקלית" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>L</t>
   </si>
@@ -181,13 +182,28 @@
   </si>
   <si>
     <t>המרכז בין מרכז המסה למרכז המוט</t>
+  </si>
+  <si>
+    <t>T_avg^2</t>
+  </si>
+  <si>
+    <t>dt_avg^2</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>T^2Avg</t>
+  </si>
+  <si>
+    <t>Dt^2_avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +248,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -259,13 +283,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,15 +596,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:N24"/>
+  <dimension ref="A4:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,57 +647,71 @@
       <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
+      <c r="O4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="6" customFormat="1">
+      <c r="A5" s="6">
         <v>0.82</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>1.8240000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>1.823</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>1.8240000000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>1.8240000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>1.8220000000000001</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>1.823</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>1.8240000000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>1.823</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="7">
         <f>AVERAGE(B5:I5)</f>
         <v>1.8233750000000002</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <f>0.001/SQRT(12)</f>
         <v>2.886751345948129E-4</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <f>_xlfn.STDEV.S(B5:I5)</f>
         <v>7.4402380914286958E-4</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="7">
         <f>SQRT(K5^2+L5^2)</f>
         <v>7.9806313152832621E-4</v>
       </c>
-      <c r="N5">
-        <f>0.1/SQRT(12)</f>
-        <v>2.8867513459481291E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5" s="6">
+        <f>0.001/SQRT(12)</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O5" s="6">
+        <f>J5^2</f>
+        <v>3.3246963906250007</v>
+      </c>
+      <c r="P5" s="6">
+        <f>2*M5*J5</f>
+        <v>2.9103367249009239E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>0.32</v>
       </c>
@@ -716,11 +756,19 @@
         <v>9.6053060733068425E-4</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N12" si="4">0.1/SQRT(12)</f>
-        <v>2.8867513459481291E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <f t="shared" ref="N6:N12" si="4">0.001/SQRT(12)</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O12" si="5">J6^2</f>
+        <v>1.2896441406249997</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P12" si="6">2*M6*J6</f>
+        <v>2.1816051418998162E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>0.92</v>
       </c>
@@ -766,10 +814,18 @@
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>2.8867513459481291E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>3.7186301406250006</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>2.2855611913598587E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>0.42</v>
       </c>
@@ -815,10 +871,18 @@
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>2.8867513459481291E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>1.6880505624999995</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>1.4175979694456796E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>0.72</v>
       </c>
@@ -864,10 +928,18 @@
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
-        <v>2.8867513459481291E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>2.9057463906250001</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>4.5482026036375699E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>0.62</v>
       </c>
@@ -913,10 +985,18 @@
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>2.8867513459481291E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>2.4991657656249999</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>2.7919557716550364E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>0.52</v>
       </c>
@@ -962,10 +1042,18 @@
       </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>2.8867513459481291E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>2.0985143906249997</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>2.312188407820443E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>0.56999999999999995</v>
       </c>
@@ -1011,36 +1099,192 @@
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>2.8867513459481291E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9">
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>2.2997722499999997</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>2.4542235097305223E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="7:16">
       <c r="I18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="7:9">
+      <c r="M18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="7:16">
       <c r="I19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="7:9">
+      <c r="M19">
+        <f>A5</f>
+        <v>0.82</v>
+      </c>
+      <c r="N19">
+        <f>N5</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O19">
+        <f>O5</f>
+        <v>3.3246963906250007</v>
+      </c>
+      <c r="P19">
+        <f>P5</f>
+        <v>2.9103367249009239E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="7:16">
       <c r="I20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="7:9">
+      <c r="M20">
+        <f t="shared" ref="M20:M28" si="7">A6</f>
+        <v>0.32</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:P26" si="8">N6</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="8"/>
+        <v>1.2896441406249997</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>2.1816051418998162E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="7:16">
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>0.92</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="8"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="8"/>
+        <v>3.7186301406250006</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>2.2855611913598587E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="7:16">
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>0.42</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="8"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="8"/>
+        <v>1.6880505624999995</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>1.4175979694456796E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="7:16">
       <c r="G23" t="s">
         <v>28</v>
       </c>
       <c r="I23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="7:9">
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>0.72</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="8"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="8"/>
+        <v>2.9057463906250001</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>4.5482026036375699E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="7:16">
       <c r="I24" t="e">
         <f>2*3.1415*SQRT(#REF!/9.81)</f>
         <v>#REF!</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>0.62</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="8"/>
+        <v>2.4991657656249999</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>2.7919557716550364E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="7:16">
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>0.52</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="8"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="8"/>
+        <v>2.0985143906249997</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>2.312188407820443E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="7:16">
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="8"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="8"/>
+        <v>2.2997722499999997</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>2.4542235097305223E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1053,11 +1297,532 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>0.82</v>
+      </c>
+      <c r="B3">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.823</v>
+      </c>
+      <c r="D3">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="G3">
+        <v>1.823</v>
+      </c>
+      <c r="H3">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="I3">
+        <v>1.823</v>
+      </c>
+      <c r="J3" s="3">
+        <f>AVERAGE(B3:I3)</f>
+        <v>1.8233750000000002</v>
+      </c>
+      <c r="K3">
+        <f>0.001/SQRT(12)</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.STDEV.S(B3:I3)</f>
+        <v>7.4402380914286958E-4</v>
+      </c>
+      <c r="M3" s="3">
+        <f>SQRT(K3^2+L3^2)</f>
+        <v>7.9806313152832621E-4</v>
+      </c>
+      <c r="N3">
+        <f>0.001/SQRT(12)</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O3">
+        <f>J3^2</f>
+        <v>3.3246963906250007</v>
+      </c>
+      <c r="P3">
+        <f>2*M3*J3</f>
+        <v>2.9103367249009239E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>0.32</v>
+      </c>
+      <c r="B4">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="C4">
+        <v>1.135</v>
+      </c>
+      <c r="D4">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="E4">
+        <v>1.137</v>
+      </c>
+      <c r="F4">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="G4">
+        <v>1.135</v>
+      </c>
+      <c r="H4">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="I4">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J10" si="0">AVERAGE(B4:I4)</f>
+        <v>1.1356249999999999</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="1">0.001/SQRT(12)</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="2">_xlfn.STDEV.S(B4:I4)</f>
+        <v>9.161253813129073E-4</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M10" si="3">SQRT(K4^2+L4^2)</f>
+        <v>9.6053060733068425E-4</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N10" si="4">0.001/SQRT(12)</f>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O10" si="5">J4^2</f>
+        <v>1.2896441406249997</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P10" si="6">2*M4*J4</f>
+        <v>2.1816051418998162E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>0.92</v>
+      </c>
+      <c r="B5">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="C5">
+        <v>1.929</v>
+      </c>
+      <c r="D5">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="F5">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="G5">
+        <v>1.929</v>
+      </c>
+      <c r="H5">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="I5">
+        <v>1.929</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9283750000000002</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>5.1754916950682358E-4</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>5.9261326022165257E-4</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>3.7186301406250006</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>2.2855611913598587E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>0.42</v>
+      </c>
+      <c r="B6">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="C6">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="D6">
+        <v>1.3</v>
+      </c>
+      <c r="E6">
+        <v>1.3</v>
+      </c>
+      <c r="F6">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="G6">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="H6">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="I6">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2992499999999998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>4.6291004988632757E-4</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="3"/>
+        <v>5.4554472559002493E-4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>1.6880505624999995</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>1.4175979694456796E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>0.72</v>
+      </c>
+      <c r="B7">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="C7">
+        <v>1.706</v>
+      </c>
+      <c r="D7">
+        <v>1.704</v>
+      </c>
+      <c r="E7">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.704</v>
+      </c>
+      <c r="G7">
+        <v>1.704</v>
+      </c>
+      <c r="H7">
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="I7">
+        <v>1.704</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7046250000000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>1.302470180629334E-3</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3340771734655921E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>2.9057463906250001</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>4.5482026036375699E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>0.62</v>
+      </c>
+      <c r="B8">
+        <v>1.58</v>
+      </c>
+      <c r="C8">
+        <v>1.58</v>
+      </c>
+      <c r="D8">
+        <v>1.58</v>
+      </c>
+      <c r="E8">
+        <v>1.581</v>
+      </c>
+      <c r="F8">
+        <v>1.581</v>
+      </c>
+      <c r="G8">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="I8">
+        <v>1.581</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.580875</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>8.3452296039627377E-4</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="3"/>
+        <v>8.8304128145964616E-4</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>2.4991657656249999</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>2.7919557716550364E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>0.52</v>
+      </c>
+      <c r="B9">
+        <v>1.448</v>
+      </c>
+      <c r="C9">
+        <v>1.448</v>
+      </c>
+      <c r="D9">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="E9">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="F9">
+        <v>1.448</v>
+      </c>
+      <c r="G9">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.448</v>
+      </c>
+      <c r="I9">
+        <v>1.45</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4486249999999998</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>7.4402380914286958E-4</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="3"/>
+        <v>7.9806313152832621E-4</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>2.0985143906249997</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>2.312188407820443E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B10">
+        <v>1.518</v>
+      </c>
+      <c r="C10">
+        <v>1.516</v>
+      </c>
+      <c r="D10">
+        <v>1.516</v>
+      </c>
+      <c r="E10">
+        <v>1.516</v>
+      </c>
+      <c r="F10">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="G10">
+        <v>1.516</v>
+      </c>
+      <c r="H10">
+        <v>1.516</v>
+      </c>
+      <c r="I10">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5165</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>7.5592894601843427E-4</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="3"/>
+        <v>8.0917359371266817E-4</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>2.886751345948129E-4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>2.2997722499999997</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>2.4542235097305223E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
